--- a/data/trans_bre/P21D_5_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P21D_5_R-Provincia-trans_bre.xlsx
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.867221215662711</v>
+        <v>-2.03047574806334</v>
       </c>
       <c r="D8" s="6" t="inlineStr"/>
     </row>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4793485739109887</v>
+        <v>0.470835148613137</v>
       </c>
       <c r="D9" s="6" t="inlineStr"/>
     </row>
@@ -630,10 +630,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.5609497570255843</v>
+        <v>0.5609497570255841</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.7914761082105287</v>
+        <v>0.7914761082105285</v>
       </c>
     </row>
     <row r="11">
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.467744579119808</v>
+        <v>-1.835268927107802</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
     </row>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.43201748253214</v>
+        <v>2.533418926205398</v>
       </c>
       <c r="D12" s="6" t="inlineStr"/>
     </row>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.670262673918535</v>
+        <v>-3.761787903782109</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
     </row>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.660387080482974</v>
+        <v>2.893305888640805</v>
       </c>
       <c r="D18" s="6" t="inlineStr"/>
     </row>
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.205253504906187</v>
+        <v>1.277025872025144</v>
       </c>
       <c r="D24" s="6" t="inlineStr"/>
     </row>
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1601223665369507</v>
+        <v>0.1573687779733847</v>
       </c>
       <c r="D26" s="6" t="inlineStr"/>
     </row>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.871967138834947</v>
+        <v>1.653829880067624</v>
       </c>
       <c r="D27" s="6" t="inlineStr"/>
     </row>
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.178210010232092</v>
+        <v>0.1782100102320919</v>
       </c>
       <c r="D28" s="6" t="n">
-        <v>0.8250920165483467</v>
+        <v>0.8250920165483464</v>
       </c>
     </row>
     <row r="29">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.1336244764173652</v>
+        <v>-0.1493650581064762</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>-0.5699507414030589</v>
+        <v>-0.5893411260768988</v>
       </c>
     </row>
     <row r="30">
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.4749844426939436</v>
+        <v>0.5292569851095404</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>6.363004343675221</v>
+        <v>8.853094977657236</v>
       </c>
     </row>
     <row r="31">
